--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1535086.646209481</v>
+        <v>-1537704.483436108</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>315.7949653190324</v>
+        <v>104.9308184097147</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>89.22431707328867</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>137.1825813128127</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>195.3804119490445</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74.07135572982061</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>302.4730282667009</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>78.53075888137357</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>55.26280711493306</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>42.61670308498968</v>
       </c>
       <c r="H8" t="n">
-        <v>288.9048657217766</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>53.8270442769164</v>
+        <v>30.21367771259451</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1579,13 +1579,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.82449082152232</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>49.33106662725105</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>77.73359659137104</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>20.67756722602948</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>120.6730984517104</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.2343752954198</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2369,10 +2369,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>72.8097849205479</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.1343012721633</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652579</v>
@@ -3010,10 +3010,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969982</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.784773191979</v>
+        <v>1604.229622059685</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.784773191979</v>
+        <v>1235.267105119273</v>
       </c>
       <c r="D2" t="n">
-        <v>912.5190745852287</v>
+        <v>877.0014065125224</v>
       </c>
       <c r="E2" t="n">
-        <v>526.7308219869844</v>
+        <v>877.0014065125224</v>
       </c>
       <c r="F2" t="n">
-        <v>207.7460085334164</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>207.7460085334164</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.784773191979</v>
+        <v>1604.229622059685</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.784773191979</v>
+        <v>1604.229622059685</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2238.100841080695</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>642.7634789947318</v>
+        <v>641.9376744406312</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1078.270627476758</v>
       </c>
       <c r="V4" t="n">
-        <v>1021.765895288653</v>
+        <v>823.5861392708709</v>
       </c>
       <c r="W4" t="n">
-        <v>1021.765895288653</v>
+        <v>823.5861392708709</v>
       </c>
       <c r="X4" t="n">
-        <v>824.4119438249716</v>
+        <v>823.5861392708709</v>
       </c>
       <c r="Y4" t="n">
-        <v>824.4119438249716</v>
+        <v>823.5861392708709</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1917.382287315189</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>711.6209269644535</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533244</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557432</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>844.171363847817</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1847.970549218418</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1626.203933787945</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1337.101066913588</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.370663926325</v>
+        <v>1082.416578707701</v>
       </c>
       <c r="W7" t="n">
-        <v>1292.953493889364</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="X7" t="n">
-        <v>1064.963942991347</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.171363847817</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1935.366530930991</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C8" t="n">
-        <v>1566.40401399058</v>
+        <v>1200.139242371469</v>
       </c>
       <c r="D8" t="n">
-        <v>1208.138315383829</v>
+        <v>841.8735437647181</v>
       </c>
       <c r="E8" t="n">
-        <v>822.3500627855849</v>
+        <v>456.0852911664738</v>
       </c>
       <c r="F8" t="n">
-        <v>815.4045620363814</v>
+        <v>449.1397904172704</v>
       </c>
       <c r="G8" t="n">
-        <v>400.3321118813779</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.366530930991</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>270.9995076393842</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="C10" t="n">
-        <v>270.9995076393842</v>
+        <v>362.0594966154772</v>
       </c>
       <c r="D10" t="n">
-        <v>120.8828682270485</v>
+        <v>362.0594966154772</v>
       </c>
       <c r="E10" t="n">
-        <v>120.8828682270485</v>
+        <v>362.0594966154772</v>
       </c>
       <c r="F10" t="n">
-        <v>120.8828682270485</v>
+        <v>362.0594966154772</v>
       </c>
       <c r="G10" t="n">
-        <v>120.8828682270485</v>
+        <v>194.3566599901962</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X10" t="n">
-        <v>452.6479724696239</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y10" t="n">
-        <v>452.6479724696239</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487566</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831764</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V13" t="n">
-        <v>1849.578742244367</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207407</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5258,25 +5258,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>924.6979859831846</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>755.7618030552777</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>605.645163642942</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>457.7320700605488</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>310.8421225626385</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>143.6460232775184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X16" t="n">
-        <v>1327.139029956954</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y16" t="n">
-        <v>1106.346450813424</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232838</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2243.221817693721</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1954.146591037919</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1699.462102832032</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1410.044932795071</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.055381897054</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>961.2628027535235</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>642.8692823226941</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C22" t="n">
-        <v>473.9330993947872</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>323.8164599824514</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5941,19 +5941,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y22" t="n">
-        <v>824.5177471529338</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>481.447947124485</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2303.393082295247</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2083.791617318188</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1794.716390662386</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6661,7 +6661,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,16 +6686,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,7 +6862,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,19 +7257,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580115</v>
@@ -7561,19 +7561,19 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954146</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,19 +7588,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380721</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>240.4465442417431</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>186.4490126143853</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>91.08108042267908</v>
+        <v>301.9452273319968</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>379.0122940590799</v>
       </c>
     </row>
     <row r="3">
@@ -22711,10 +22711,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>30.32924343999261</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>147.3599015160449</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>194.3131525023057</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>90.9636462189728</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>208.7894017452199</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>196.7278831012588</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>59.15888173022685</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>61.35027805667497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>73.62417772602127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>38.89198472948132</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1280405.053986944</v>
+        <v>1280405.053986945</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1280405.053986945</v>
+        <v>1280405.053986944</v>
       </c>
     </row>
     <row r="10">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455267</v>
+        <v>116044.8438455268</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="F2" t="n">
         <v>141250.6549457511</v>
@@ -26332,7 +26332,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
         <v>141250.6549457511</v>
@@ -26341,10 +26341,10 @@
         <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262496</v>
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>68537.81069968632</v>
+        <v>68537.81069968629</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47790.09282518987</v>
+        <v>47790.0928251899</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,31 +26430,31 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768883</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768908</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768963</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="K4" t="n">
         <v>17938.00358486237</v>
       </c>
       <c r="L4" t="n">
+        <v>17938.00358486237</v>
+      </c>
+      <c r="M4" t="n">
         <v>17938.00358486239</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17938.00358486237</v>
       </c>
       <c r="N4" t="n">
         <v>17938.00358486238</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486237</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1139434.804995428</v>
+        <v>-1139829.625936581</v>
       </c>
       <c r="C6" t="n">
         <v>-256824.5515403697</v>
       </c>
       <c r="D6" t="n">
-        <v>-53385.80992826386</v>
+        <v>-53385.8099282638</v>
       </c>
       <c r="E6" t="n">
-        <v>-295231.4810072801</v>
+        <v>-295266.2189327157</v>
       </c>
       <c r="F6" t="n">
-        <v>30180.98080007509</v>
+        <v>30146.2428746394</v>
       </c>
       <c r="G6" t="n">
-        <v>30180.98080007503</v>
+        <v>30146.2428746394</v>
       </c>
       <c r="H6" t="n">
-        <v>30180.98080007506</v>
+        <v>30146.24287463937</v>
       </c>
       <c r="I6" t="n">
-        <v>30180.98080007515</v>
+        <v>30146.24287463937</v>
       </c>
       <c r="J6" t="n">
-        <v>-137424.1970099075</v>
+        <v>-137458.9349353432</v>
       </c>
       <c r="K6" t="n">
         <v>-45957.62041221446</v>
       </c>
       <c r="L6" t="n">
-        <v>22580.19028747187</v>
+        <v>22580.19028747184</v>
       </c>
       <c r="M6" t="n">
-        <v>-62474.83764803992</v>
+        <v>-62474.83764803994</v>
       </c>
       <c r="N6" t="n">
         <v>22580.19028747182</v>
       </c>
       <c r="O6" t="n">
-        <v>22580.19028747187</v>
+        <v>22580.19028747184</v>
       </c>
       <c r="P6" t="n">
         <v>3152.472293840052</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>190.8166233022539</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022541</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022539</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>211.7942354891167</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>7.225644596973723</v>
       </c>
     </row>
     <row r="3">
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>149.0445728083879</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.66248593366</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>108.4486973867525</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,16 +27822,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>111.2382664500683</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>196.8748362088949</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>368.3050225684638</v>
       </c>
       <c r="H8" t="n">
-        <v>5.702898665543898</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>90.92797063740437</v>
+        <v>114.5413372017263</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N12" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>338.6542681503486</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33023,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>258.3858318060507</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33266,22 +33266,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>728.6709493241814</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>687.9583686879464</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33977,22 +33977,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>307.9814458135827</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>314.5984986256103</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,16 +34457,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>137.7376326175082</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>631.6436438346171</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>302.9297349452399</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N12" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998972</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>196.0580237059041</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>120.5443928316917</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>597.3292372408481</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>545.824334765928</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>169.4270660337085</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,22 +37704,22 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>180.6240912112801</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,16 +38105,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>6.39592053417488</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
